--- a/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
+++ b/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,146 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-25 08:15:56</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14 : mahdi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-04-25 08:15:57</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14 : mahdi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:01:35</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:01:51</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:03:12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:03:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:04:23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:04:27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:11:23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-04-25 11:11:28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
+++ b/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,62 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-04-26 09:16:28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-04-26 09:16:54</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-04-26 09:18:40</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-04-26 09:22:56</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
+++ b/FACE_CODING/face_coding_app v1.1.1/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,34 @@
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-05-03 08:31:50</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-03 08:31:51</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
